--- a/city_url.xlsx
+++ b/city_url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakeemangulu/Documents/HODP/expandharvard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E0F734-DCE5-144E-B86D-6CF78FA6E97A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940BCAC6-BD46-E345-A8AF-0A0F4CA91747}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{197A67B9-673E-5843-A60D-81472971A93E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>City</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Bedford</t>
   </si>
   <si>
-    <t>Sardis</t>
-  </si>
-  <si>
     <t>Southborough</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>Boston</t>
   </si>
   <si>
-    <t>Fiesole</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Menlo Park</t>
   </si>
   <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
     <t>Burlingame</t>
   </si>
   <si>
@@ -117,19 +105,10 @@
     <t>New York</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>ME</t>
-  </si>
-  <si>
-    <t>IT</t>
   </si>
   <si>
     <t>CA</t>
@@ -573,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC7FAD2-65BD-E942-959E-F2F6A5FFE151}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,10 +573,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,10 +587,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -622,10 +601,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -661,13 +640,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -678,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -723,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -737,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -745,13 +724,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -765,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,13 +752,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -787,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -801,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,13 +808,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -843,13 +822,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -857,13 +836,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -871,13 +850,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -891,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -899,77 +878,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
